--- a/NBASchedule/articles.xlsx
+++ b/NBASchedule/articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://astros-my.sharepoint.com/personal/jfernandez_astros_com/Documents/Desktop/NBASchedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{5E6FCA46-15BE-4462-BB3C-D56B177BAADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{127A7017-5449-42C4-A778-03B5706262E4}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{5E6FCA46-15BE-4462-BB3C-D56B177BAADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A51C632-CEE8-42EE-B571-32AA069320A8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{486CAB44-11E1-4B62-8138-37A9DE5FE2C2}"/>
   </bookViews>
@@ -62,15 +62,9 @@
     <t>Steenland, K., &amp; Deddeens, J. A.</t>
   </si>
   <si>
-    <t>Ibanez, S. J., García, J., Feu, S., Lorenzo, A., &amp; Sampaio, J.</t>
-  </si>
-  <si>
     <t>Journal of Science and Medicine in Sport</t>
   </si>
   <si>
-    <t>Teramoto, M., Cross, C. L., Cushman, D. M., Makk, T. G., Petron, D. J., &amp; Willick, S. E.</t>
-  </si>
-  <si>
     <t>Effect of travel and rest on game performance in professional basketball players.</t>
   </si>
   <si>
@@ -89,27 +83,18 @@
     <t>Basketball performance is affected by the schedule congestion: NBA back-to-backs under the microscope.</t>
   </si>
   <si>
-    <t>Esteves, P., Mikolajec, K., Schelling, X., &amp; Sampaio, J.</t>
-  </si>
-  <si>
     <t>European Journal of Sport Science</t>
   </si>
   <si>
     <t>The Negative Influence of Air Travel on Health and Performance in the National Basketball Association: A Narrative Review.</t>
   </si>
   <si>
-    <t>Huyghe T., Scanlan AT., Dalbo V., &amp; Calleja-González J.</t>
-  </si>
-  <si>
     <t>Sports</t>
   </si>
   <si>
     <t>The effect of regular-season rest on playoff performance among players in the National Basketball Association.</t>
   </si>
   <si>
-    <t>Belk J.W., Marshall H.A., McCarty E.C., Kraeutler M.J.</t>
-  </si>
-  <si>
     <t>Orthopaedic Journal of Sport Medicine</t>
   </si>
   <si>
@@ -167,9 +152,6 @@
     <t>Greater effect of east vs. west travel on jet-lag, sleep and team-sport performance.</t>
   </si>
   <si>
-    <t xml:space="preserve">Fowler P.M., Knez W., Crowcroft S., Mendham A.E., Miller J., Sargent C., Duffield R. </t>
-  </si>
-  <si>
     <t>https://journals.lww.com/acsm-msse/Fulltext/2017/12000/Greater_Effect_of_East_versus_West_Travel_on_Jet.20.aspx</t>
   </si>
   <si>
@@ -179,9 +161,6 @@
     <t>Sleep restriction impairs maximal jump performance and joint coordination in elite athletes.</t>
   </si>
   <si>
-    <t>Mah CD, Sparks AJ, Samaan M, Souza RB, Luke A.</t>
-  </si>
-  <si>
     <t>Journal of Sport Science</t>
   </si>
   <si>
@@ -191,9 +170,6 @@
     <t>The effects of sleep extension on the athletic performance of collegiate basketball players.</t>
   </si>
   <si>
-    <t>Mah CD, Mah KE, Kezirian EJ, Dement WC.</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3119836/</t>
   </si>
   <si>
@@ -212,9 +188,6 @@
     <t>A second look at NBA game schedules: Response to Teramoto et al.</t>
   </si>
   <si>
-    <t>Mack CD, Herzog MM, DiFiori JP, Meisel PL, Dreyer NA.</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/28823474</t>
   </si>
   <si>
@@ -317,9 +290,6 @@
     <t>Game-to-game variability of technical and physical performance in NBA players</t>
   </si>
   <si>
-    <t>Nuno, M., Gonçalves, B.,  Abade, E., Liu, H., Torres-Ronda, L., Leite N., &amp; Sampaio, J.</t>
-  </si>
-  <si>
     <t>International Journal of Performance Analysis in Sport</t>
   </si>
   <si>
@@ -623,9 +593,6 @@
     <t>Basketball injury incidence in NBA: is there an impact of fixture congestion?</t>
   </si>
   <si>
-    <t>Esteves PT, Arede, J., Leite, N., Santos, S., Mikolajec K.,</t>
-  </si>
-  <si>
     <t>http://www.observatoriobizkaiabasket.com/Web/Archivos/GD/297/26309dafd13cf22f453368541856c660.pdf</t>
   </si>
   <si>
@@ -722,13 +689,46 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>Research / Scientific</t>
-  </si>
-  <si>
     <t>Media / Others</t>
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Esteves, P., Mikolajec, K., Schelling, X., et al.</t>
+  </si>
+  <si>
+    <t>Mah CD, Sparks AJ, Samaan M, et al.</t>
+  </si>
+  <si>
+    <t>Huyghe T., Scanlan AT., Dalbo V., et al.</t>
+  </si>
+  <si>
+    <t>Mack CD, Herzog MM, DiFiori JP, et al.</t>
+  </si>
+  <si>
+    <t>Teramoto, M., Cross, C. L., Cushman, D. M., et al.</t>
+  </si>
+  <si>
+    <t>Belk J.W., Marshall H.A., McCarty E.C., et al.</t>
+  </si>
+  <si>
+    <t>Fowler P.M., Knez W., Crowcroft S., et al.</t>
+  </si>
+  <si>
+    <t>Esteves PT, Arede, J., Leite, N., et al.</t>
+  </si>
+  <si>
+    <t>Nuno, M., Gonçalves, B.,  Abade, E., et al.</t>
+  </si>
+  <si>
+    <t>Mah CD, Mah KE, Kezirian EJ, et al.</t>
+  </si>
+  <si>
+    <t>Ibanez, S. J., García, J., Feu, S., et al.</t>
+  </si>
+  <si>
+    <t>Research</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="A2" sqref="A2:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,7 +1123,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -1143,1007 +1143,1007 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B2" s="1">
         <v>2020</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B3" s="1">
         <v>2020</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B4" s="1">
         <v>2020</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B5" s="1">
         <v>2019</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B6" s="1">
         <v>2019</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B7" s="1">
         <v>2019</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B8" s="1">
         <v>2019</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B9" s="1">
         <v>2019</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B10" s="1">
         <v>2019</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F10" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B11" s="1">
         <v>2019</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F11" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B12" s="1">
         <v>2018</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" s="1">
         <v>2018</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B14" s="1">
         <v>2018</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B15" s="1">
         <v>2018</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B16" s="1">
         <v>2018</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B17" s="1">
         <v>2018</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B18" s="1">
         <v>2018</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B19" s="1">
         <v>2018</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F19" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B20" s="1">
         <v>2017</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B21" s="1">
         <v>2017</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B22" s="1">
         <v>2017</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B23" s="1">
         <v>2017</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B24" s="1">
         <v>2017</v>
       </c>
       <c r="C24" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B25" s="1">
         <v>2017</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B26" s="1">
         <v>2016</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B27" s="1">
         <v>2016</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B28" s="1">
         <v>2016</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B29" s="1">
         <v>2016</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F29" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B30" s="1">
         <v>2016</v>
       </c>
       <c r="C30" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F30" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B31" s="1">
         <v>2015</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B32" s="1">
         <v>2015</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B33" s="1">
         <v>2015</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F33" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B34" s="1">
         <v>2015</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B35" s="1">
         <v>2015</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B36" s="1">
         <v>2015</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F36" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B37" s="1">
         <v>2015</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B38" s="1">
         <v>2014</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B39" s="1">
         <v>2014</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B40" s="1">
         <v>2014</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F40" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B41" s="1">
         <v>2013</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B42" s="1">
         <v>2013</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B43" s="1">
         <v>2012</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B44" s="1">
         <v>2012</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B45" s="1">
         <v>2012</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F45" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B46" s="1">
         <v>2012</v>
       </c>
       <c r="C46" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F46" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B47" s="1">
         <v>2011</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B48" s="1">
         <v>2011</v>
       </c>
       <c r="C48" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F48" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B49" s="1">
         <v>2010</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B50" s="1">
         <v>2010</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B51" s="1">
         <v>2010</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B52" s="1">
         <v>2009</v>
@@ -2155,161 +2155,161 @@
         <v>4</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B53" s="1">
         <v>2009</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B54" s="1">
         <v>2009</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F54" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B55" s="1">
         <v>2008</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B56" s="1">
         <v>2008</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B57" s="1">
         <v>2007</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B58" s="1">
         <v>1999</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B59" s="1">
         <v>1999</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B60" s="1">
         <v>1997</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>5</v>
@@ -2318,7 +2318,7 @@
         <v>7</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2333,21 +2333,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2CA92A0D2C89A47A3BCC337E0262C83" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b3ae50af9c1033d3a4fcef21b9059447">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4723bc95-0c8e-41fb-990b-b2cc7972877f" xmlns:ns4="d8a3d58e-39a8-40f8-9db3-cf3968ce25a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36bfc35191b22e49a872a7f6fbe43680" ns3:_="" ns4:_="">
     <xsd:import namespace="4723bc95-0c8e-41fb-990b-b2cc7972877f"/>
@@ -2564,24 +2549,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E690619-7BE0-4081-A937-F82792E555DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FAD7588-ED0B-4ECA-A3C3-D84873847EF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE5F15BE-F209-49DE-81B1-AC014D434146}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2598,4 +2581,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FAD7588-ED0B-4ECA-A3C3-D84873847EF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E690619-7BE0-4081-A937-F82792E555DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>